--- a/zavrsni/newMetrics/metrics/plotHistory 444-598 split with k20 [15,15,15,1] with 8 -16 -64/metrics.xlsx
+++ b/zavrsni/newMetrics/metrics/plotHistory 444-598 split with k20 [15,15,15,1] with 8 -16 -64/metrics.xlsx
@@ -462,13 +462,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3445804283369202</v>
+        <v>0.5201723536546187</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4611767369284607</v>
+        <v>0.6706685458942205</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2454991510435252</v>
+        <v>0.3436102707541191</v>
       </c>
     </row>
     <row r="3">
@@ -478,13 +478,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.6472227131763217</v>
+        <v>0.7457065108591763</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7052965204920423</v>
+        <v>0.830297500534561</v>
       </c>
       <c r="D3" t="n">
-        <v>0.586601332759742</v>
+        <v>0.6518119031301491</v>
       </c>
     </row>
     <row r="4">
@@ -494,13 +494,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.6967193432130206</v>
+        <v>0.7738309166274397</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7357142857142858</v>
+        <v>0.8524590163934426</v>
       </c>
       <c r="D4" t="n">
-        <v>0.660377358490566</v>
+        <v>0.6911764705882353</v>
       </c>
     </row>
     <row r="5">
@@ -510,13 +510,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.7959383753501401</v>
+        <v>0.8444350282485876</v>
       </c>
       <c r="C5" t="n">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="D5" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.7833333333333333</v>
       </c>
     </row>
     <row r="6">
@@ -526,13 +526,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.7415554508457671</v>
+        <v>0.8064806636390209</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7923076923076923</v>
+        <v>0.8702290076335878</v>
       </c>
       <c r="D6" t="n">
-        <v>0.6804979253112033</v>
+        <v>0.7401574803149606</v>
       </c>
     </row>
     <row r="7">
@@ -542,13 +542,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.6637889016689413</v>
+        <v>0.7534043828111625</v>
       </c>
       <c r="C7" t="n">
-        <v>0.718939393939394</v>
+        <v>0.8310606060606061</v>
       </c>
       <c r="D7" t="n">
-        <v>0.6225655430711611</v>
+        <v>0.6649717514124294</v>
       </c>
     </row>
     <row r="8">
@@ -558,13 +558,13 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4683605720122574</v>
+        <v>0.3376262626262627</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6067415730337079</v>
+        <v>0.4772727272727273</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4044943820224719</v>
+        <v>0.2045454545454546</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.7959383753501401</v>
+        <v>0.8444350282485876</v>
       </c>
       <c r="C9" t="n">
-        <v>0.875</v>
+        <v>0.95</v>
       </c>
       <c r="D9" t="n">
-        <v>0.6833333333333333</v>
+        <v>0.7833333333333333</v>
       </c>
     </row>
   </sheetData>
